--- a/ResEditor/Design/Stage/G_Shape.xlsx
+++ b/ResEditor/Design/Stage/G_Shape.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9240" yWindow="6760" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="9240" yWindow="6765" windowWidth="25605" windowHeight="16065" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,72 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>xbany</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>xbany:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">矩形
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>圆形</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,29 +178,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dict[3]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>width</t>
   </si>
   <si>
+    <t>碰撞体大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>collider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict[4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>radius</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>int</t>
-  </si>
-  <si>
-    <t>碰撞体大小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>collider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -178,6 +251,26 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -217,13 +310,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="19">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -233,16 +328,15 @@
     <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -570,107 +664,109 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" customWidth="1"/>
-    <col min="5" max="5" width="6.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" customWidth="1"/>
-    <col min="7" max="7" width="7.1640625" customWidth="1"/>
-    <col min="8" max="8" width="7.5" customWidth="1"/>
-    <col min="9" max="9" width="73.83203125" customWidth="1"/>
+    <col min="3" max="3" width="9.25" customWidth="1"/>
+    <col min="4" max="4" width="6.375" customWidth="1"/>
+    <col min="5" max="6" width="6.625" customWidth="1"/>
+    <col min="7" max="7" width="14.375" customWidth="1"/>
+    <col min="8" max="8" width="7.125" customWidth="1"/>
+    <col min="9" max="9" width="7.5" customWidth="1"/>
+    <col min="10" max="10" width="73.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
         <v>20</v>
       </c>
       <c r="D1" s="3"/>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
       </c>
       <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
       </c>
       <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>7</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" hidden="1">
-      <c r="D4" s="3">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" hidden="1">
-      <c r="D5" s="3">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+    <row r="4" spans="1:10" hidden="1">
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" hidden="1">
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="2">
         <v>10100001</v>
       </c>
@@ -684,18 +780,21 @@
       <c r="E6">
         <v>48</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6">
-        <v>32</v>
-      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2"/>
       <c r="H6">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6">
+        <v>48</v>
+      </c>
+      <c r="J6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7" s="2">
         <v>10100002</v>
       </c>
@@ -709,18 +808,21 @@
       <c r="E7">
         <v>48</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7">
-        <v>32</v>
-      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2"/>
       <c r="H7">
-        <v>48</v>
-      </c>
-      <c r="I7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7">
+        <v>48</v>
+      </c>
+      <c r="J7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8" s="2">
         <v>10100003</v>
       </c>
@@ -734,18 +836,21 @@
       <c r="E8">
         <v>48</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8">
-        <v>32</v>
-      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2"/>
       <c r="H8">
-        <v>48</v>
-      </c>
-      <c r="I8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8">
+        <v>48</v>
+      </c>
+      <c r="J8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="A9" s="2">
         <v>10100004</v>
       </c>
@@ -759,18 +864,21 @@
       <c r="E9">
         <v>48</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9">
-        <v>32</v>
-      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2"/>
       <c r="H9">
-        <v>48</v>
-      </c>
-      <c r="I9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9">
+        <v>48</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10" s="2">
         <v>10200001</v>
       </c>
@@ -784,18 +892,21 @@
       <c r="E10">
         <v>48</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10">
-        <v>32</v>
-      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2"/>
       <c r="H10">
-        <v>48</v>
-      </c>
-      <c r="I10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10">
+        <v>48</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="A11" s="2">
         <v>10200002</v>
       </c>
@@ -809,18 +920,21 @@
       <c r="E11">
         <v>48</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11">
-        <v>32</v>
-      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2"/>
       <c r="H11">
-        <v>48</v>
-      </c>
-      <c r="I11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11">
+        <v>48</v>
+      </c>
+      <c r="J11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:10">
       <c r="A12" s="2">
         <v>10300001</v>
       </c>
@@ -834,18 +948,21 @@
       <c r="E12">
         <v>48</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12">
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12">
         <v>64</v>
       </c>
-      <c r="H12">
-        <v>48</v>
-      </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12">
+        <v>48</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:10">
       <c r="A13" s="2">
         <v>10300002</v>
       </c>
@@ -859,21 +976,25 @@
       <c r="E13">
         <v>48</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13">
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13">
         <v>64</v>
       </c>
-      <c r="H13">
-        <v>48</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="I13">
+        <v>48</v>
+      </c>
+      <c r="J13" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -883,14 +1004,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
